--- a/500all/speech_level/speeches_CHRG-114hhrg20826.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,54 +52,33 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock and Chairman Loudermilk, for holding this hearing. I want to thank all the witnesses for being here today, and I look forward to hearing your testimony.    Chairwoman Comstock had mentioned in her opening statement the real need to make sure we do more in this area. We need to make sure that both in the public and private sector that people are held responsible for the hacks that do occur. We need to make sure that we have in place what we can do here, that Congress does what it can do to make sure that there is an incentive both in the public and private sector to try to avoid these hacks, this loss of information, so I'm very interested to hear more from our witnesses on this.    I am certainly pleased that we're holding our first hearing on cybersecurity, which is certainly an increasingly urgent challenge for our national security and the personal security of every American. It's important that we continue to hear from experts in government and the private sector about the latest developments with respect to both the risks that confront security in cyberspace, and the technologies and policies to combat those threats.    Our Committee plays an important role in both the technology side and the policy side, and this is an area in which Members have successfully collaborated across the aisle. In December 2014, Congress enacted the Cybersecurity Enhancement Act, a bipartisan research, education, and standards bill that I worked on with Mr. McCaul over several years. Over the last month, Congress enacted a cybersecurity law to promote information sharing and strengthen coordination between the private and public sectors. As a Committee and as Congress, we need to continue to confront these serious cyber threats.    Unfortunately, we continue to see an increase in major cyber-attacks in both the public and private sectors. In a hearing we held here in July, we heard about the significant breach at the Office of Personnel Management, in which the personal information of millions of current and former federal employees and job applicants was compromised, including some of us here. Highly sensitive security-clearance files were also compromised, making it not just a problem for all those individuals but a national security issue as well.    We have laws in place to address the security of federal information systems. The Federal Information Security Management Act, or FISMA, and subsequent amendments establish the necessary policies and procedures for the development of standards and protocols. NIST has an important role in this. But it is clear that federal agencies need to do a better job implementing NIST's standards and protocols, and that Congress needs to give them adequate resources to do so.    The private sector is also under constant threat from cyberattacks. In the case of large-size companies, a recent study conducted by the Ponemon Institute found that there was a 19 percent increase in cybercrimes between 2014 and 2015. The study also found that cybercrimes cause significant economic damage. For 2015, cyber attacks resulted in a total average cost of $15 million. While the threats continue to grow, many in the private sector are increasingly taking steps to protect their information systems and the personal information of Americans that they gather in their routine business.    To reduce our risk and improve the security of cyberspace, it will take the combined effort of the Federal government, the private sector, our researchers and engineers, and the general public. Although cyber attacks are becoming more sophisticated, often cyber attacks are successful because of human error, such as unknowingly opening a malicious email or allowing one's credentials to be compromised. Part of our effort must be to educate the public. Another part must be to better understand human behavior in order to make new tools and technologies more effective, such as the work being done at NIST and elsewhere to move beyond passwords.    I look forward to hearing from our witnesses today about industry cybersecurity best practices as well as opportunities for public-private partnerships that could help address our shared cybersecurity challenges. I'm also interested in hearing to what extent private businesses and organizations voluntarily implement FISMA standards developed by NIST, and how you may be participating in or benefiting from other efforts at NIST, including the Cybersecurity Center for Excellence and the Framework for Critical Infrastructure.    Thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Well, thank you, Chairwoman Comstock, especially for continuing this important discussion on the security of our federal information systems.    I would also like to thank our witnesses for being here today to help us understand industry's best practices when it comes to cybersecurity. I look forward to hearing about lessons learned and how to apply those lessons to our federal systems to help prevent future cyber-attacks.    It is clear that our federal systems are not adequately protected. In fact, just this past summer, a witness from the Government Accountability Office before this Committee stated, ``It is incumbent upon federal agencies to implement the appropriate security controls to mitigate those risks at a cost-effective and acceptable level, and we found out that agencies have not consistently implemented agency-wide information security programs to mitigate that risk effectively.'' When I asked that same witness to grade our federal cybersecurity, he gave it a D. A rating of D is not an acceptable grade.    This Administration owes it to the American people to significantly improve this deplorable standing in order to sufficiently protect government information and thereby our national security. This Administration also needs to explain how it is protecting the American people's personal information. As I stated at the hearing this summer, the breach of data from the Office of Personnel Management is exactly why the Oversight Subcommittee that I chair continues to look into the collection of Americans' personal data through the website HealthCare.gov. In fact, I am still waiting for complete answers from the Administration to questions I posed in letters to the Office of Science and Technology Policy and the Centers for Medicare and Medicaid Services back in June. This Administration has not sufficiently explained why it was ever necessary to indefinitely store Americans' personnel--personal data they submitted when logging into the HealthCare.gov website, particularly those who did not end up enrolling. One would think that President Obama would agree that such a practice is unnecessary as he identified cybersecurity as one of the most serious economic and national security challenges we face as a nation, but one that we as a government or as a country are not adequately prepared to counter. If cybersecurity is one of the most serious challenges that this government faces, why on earth would the government ever consider storing all of this personal information indefinitely in data warehouses? As the Chairman of the Oversight Subcommittee, I will continue to ask questions and demand answers until we are satisfied that federal departments and agencies are making decisions in the best interest of protecting the personal information of all Americans. The safety and security of Americans and this Nation must be our number one priority.    Having continuously subpar security of our federal systems is embarrassing and must be rectified immediately. The delays must stop. It's time to finally do something about federal cybersecurity.    I look forward to the witnesses' testimony at today's hearing. I hope to learn more about the various industry best practices and lessons learned in hopes that it will shed light on what the government could and should be doing to protect our citizens from constantly evolving cyber threats.    Madam Chairwoman, I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Chairwoman Comstock and Chairman Loudermilk, for holding today's hearing. Thank you, witnesses, for spending Friday morning with us.    As we keep relearning after each new attack, cybersecurity is obviously a critical and daunting challenge. Today the data we create, store, access, and often share online contains information about almost every aspect of our lives. Our collective digital universe is composed of banking records, birth records, personal health files, government records, tax filings, on and on.    Last week, I was going on realage.com to see how long I was going to live, and now the cybersecurity attackers are going to know my cholesterol, my weight, the name of my dog, and the last year I had a cigarette. I took an Alzheimer's test last night online, which results I hope don't show up in my next campaign.    We electronically communicate with our kids' teachers about their academic achievements. I find that none of my kids will return my phone calls but they will text me right back. News flash: None of this information is secure, and immediate access to these digital connections provides tremendous advantages for businesses and consumers. In our family business, we're highly dependent on all the information we've gathered on our customers, the next time Congresswoman Bonamici needs an oil change on her Subaru, for example. It also offers abundant nefarious opportunities for cyber criminals, foreign governments intent on cyber espionage, and perhaps even more dangerous actors.    Protecting against known and emerging cyber threats is an ongoing enterprise that requires consistent vigilance and continuing adoption. Last year's OPM attack was a huge concern for all the federal workers that live in our districts across the country, and there were management and procedural failures at OPM that are now being addressed.    But nobody is immune to cyber attacks, not in the government and not in the private sector. According to Privacy Rights Clearinghouse, a nonprofit, nonpartisan, organization that tracks cyberattacks, in 2015 there were 17 reported breaches against .gov or .mil addresses that resulted in access to 27.8 million records. The big one there obviously was OPM. During the same time period, the private sector experienced 184 confirmed breaches that resulted in exposure of 131.5 million records. It's a huge problem for both sides.    I believe that sharing best practices to reduce IT vulnerabilities, educate federal workers is very important. I really look forward to today's hearing. I'm sure there are many lessons that we will learn from you today. I also look forward to the equal certainty that there is much that the private sector can learn from the government, especially the Department of Defense and our intelligence community.    So I look forward to today's discussion, and thank you so much for being with us.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chair--Madam Chair, I yield back.    Chairman Smith. Thank you, Madam Chair.    Last year, more than 178 million records of Americans were exposed in cyber-attacks. The breach of the Office of Personnel Management alone compromised the personal information of more than 20 million people, which included Members and staff of this Committee.    The United States is a top target for foreign countries. Cyber criminals and hacktivists exploit vulnerabilities in our networks and cyber systems to obtain valuable information. The number of cybersecurity incidents reported by federal agencies has increased over 1,000 percent in the last eight years. In 2014, more than 67,000 cyber-attacks were reported, and many others, of course, were not.    A number of federal agencies guard America's cybersecurity interests. Several are under the jurisdiction of the Science Committee. These include the National Science Foundation, the National Institute of Standards and Technology, the Department of Homeland Security's Science and Technology Directorate, and the Department of Energy. All of these agencies support critical research and development to promote cybersecurity and set federal standards.    However, it is clear that too many federal agencies, like OPM, fail to meet the basic standards of information security. More must be done to ensure agencies make cybersecurity a top priority.    Last year, audits revealed that 19 of 24 major federal agencies failed to meet the basic cybersecurity standards mandated by law yet the Administration has allowed deficient systems to stay online.    What are the consequences when a federal agency fails to meet its basic duties to protect sensitive information? What does it say to federal employees, not to mention our adversaries, when cabinet secretaries don't take cybersecurity seriously and fail to follow the most basic email security practices involving our country's classified information?    In the private sector, those who neglect their duty to keep the information of their customers secure are usually fired. In the federal government, it seems the only people penalized are the millions of innocent Americans who have their personal information exposed.    During the last Congress, the Science Committee approved the Cybersecurity Enhancement Act, which was signed into law. This law improves America's cybersecurity abilities and strengthens strategic planning for federal cybersecurity research and development. It supports NSF scholarships to improve the quality of our cybersecurity workforce. It also improves cybersecurity research, development, and public outreach organized by NIST.    Last month, a similar bill, the Cybersecurity Act of 2015, was signed into law. Very importantly, this bill encourages private companies to voluntarily share information about eminent cyber threats with each other as well as with the federal government.    The Science Committee will continue its efforts to support research and development to strengthen America's cyber defenses. I look forward to hearing from our witnesses today about what more we can do to support innovation and help set national standards and guidelines that will enhance our country's cybersecurity.    Thank you again, Madam Chair, and I yield back.</t>
   </si>
   <si>
-    <t>Wood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wood. Thank you. I'd like to thank Chairwoman Comstock and the other Chairs and Ranking Members for the invitation to share some thoughts on behalf of Telos Corporation on industry best practices for cybersecurity and risk management.    As I noted in my written testimony, Telos protects the world's most security-conscious enterprises, providing our customers with solutions and services for cybersecurity, secure mobility, and identity management.    The first point I'd like to highlight is that all enterprises, public and private, need to emphasis cyber hygiene in their day-to-day operational practices and employee training.    Why do I make this first point? Because the 2015 Verizon data breach investigations report found that the overwhelming common denominator in security incidents is people. Nearly all of the security incidents Verizon cataloged might have been avoided if organizations had taken basic steps to help their employees follow simple cybersecurity precautions.    Here are five basic steps that organizations should take to help better protect themselves from attacks. First, establish and enforce cybersecurity policies and procedures. Second, include effective password management practices. Third, require regular security awareness training. Fourth, implement timely updates and patches to manage vulnerabilities. And fifth, to use up-to-date endpoint security solutions. These five basic steps serve as the foundation for a strong cybersecurity program. Every IT security professional knows them, and yet the importance of following through with them cannot be overstated.    Further, these practices must be embraced in the boardroom, and by management, so that a culture of cybersecurity is created throughout the organization from the top town.    That being said, every organization with high-value digital assets needs to assume it has already been breached or will be. This leads to my second point, and that is that incident response and remediation are just as important to organizations as cyber defense and depth strategies.    Telos has developed a rigorous framework for incident response with essential steps like preparation, containment, eradication and recovery, which we use ourselves and implement for our customers.    Further, it isn't realistic to expect every organization to have the time or financial and human resources needed to successfully defend everything. That's why management is so critical to effective cybersecurity. Risk management involves identifying, evaluating, and either accepting or mitigating uncertainty in decision making.    Private and public sector organizations need to make cost-benefit choices about which systems to defend and how to defend them based on the likelihood of an asset being attacked, the value of the asset being attacked, the cost of defending the asset, and the cost of losing the asset. That approach is reflected in the continuous diagnostic and mitigation program established by Congress ``to provide adequate risk-based and cost-effective cybersecurity and more efficiently allocate cybersecurity resources.'' This continuous diagnostic to mediation program, or CDM program, extends continuous monitoring into the areas of diagnostics and mitigation while acknowledging that risk management is called for when you have to meet nearly infinite needs with finite resources.    That's also the value of initiatives like the NIST risk management framework and the NIST cybersecurity framework. They put cybersecurity solutions and best practices in the context of risk management and compliance, which brings me to my third point. The standards in the NIST cybersecurity framework are very good but they cannot succeed unless companies follow them. We should be looking for ways that market forces can incentivize companies to voluntarily take the strongest possible actions to protect themselves, which includes following the NIST standards and best practices.    The various critical infrastructure sectors are just that: critical. They're so important to our national defense, our economy, and our way of life that it's imperative government and private sectors encourage organizations in these sectors to use best security practices.    One promising area of incentivizing companies is tied to the growth of the cyber insurance market. The Commerce Department has described cyber insurance as ``an effective market-driven way of increasing cybersecurity.'' The Treasury Department has also suggested that the increasing demand for cyber insurance may help drive private sector policyholders to adopt the NIST cybersecurity framework. As insurance companies get their arms around the cybersecurity actuarial data they accumulate with each new breach, they'll want to have insights into what their clients are doing to protect themselves. Are they applying sufficient ongoing protection for their systems and data? Are they using the NIST framework or an equivalent standard? In fact, insurance companies may well require their clients to adopt the NIST framework in order to demonstrate insurability and reduce their premiums. When that happens, we could see greater market-based pressure brought to bear that will effectively require companies to do the same. So market forces and the fear of legal liability may make NIST voluntary guidelines the de facto standards for companies to demonstrate to insurers or in court that they've exercised all due care to protect their customers and their assets.    One additional point: Cybersecurity is just too important to do on the cheap. Overreliance on ``lowest price technically acceptable'' contracts can be very risky in a field that has so little room for error.    Similarly, our fifth war-fighting domain, cyberspace, must be appropriately funded. U.S. Cyber Command has been funded at a level this year that represents a mere 1/1000ths of the overall DOD budget. By contrast, just four banks--JP Morgan Chase, Bank of America, Citibank and Wells Fargo--are spending three times the amount on cybersecurity. JP Morgan, after they got hacked, decided to double their IT security spend from $250 million a year to $500 million a year, more than all of Cyber Command. The financial sector is an example of the private sector taking its cybersecurity risk management responsibilities very seriously and devoting the resources necessary to protect themselves.    Again, I appreciate the opportunity to share with you Telos's perspective, and I'd be glad to answer any questions. Thank you.</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Casado. Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, Ranking Member Beyer, and other Members of the Committee, thank you for the opportunity to testify today. I'm super thrilled to be here.    I'm Martin Casado, Senior Vice President and General Manager of Networking and Security at VMWare. VMWare is the fourth largest software company in the world with 2014 revenues of over $6 billion and over 18,000 employees.    The nature of security breach at the Office of Personnel Management was not particularly unique. Hackers were able to penetrate perimeter networks' security systems and gain access to OPM and Department of Interior systems where they were free to access and steal sensitive data over a period of several months. Hackers typically use this attack methodology because traditional perimeter-centric security systems are structurally designed to be doors to the network. These doors allow authorized users access to network systems and prevent unauthorized users from entering a network or data center.    However, perimeter security is a single point of entry that must be breached or circumvented in order to enter the data center network. Once the intruder has passed the perimeter, there's no simple means to stop malicious activity from moving throughout the data center. In many cases, the response from companies, agencies, and network security vendors is to add more security technology to the perimeter, which ignores the structural issue, creating basically a Maginot line.    VMWare submits three salient points for consideration. One: Every recent agency breach has had one thing in common: the attacker, once inside the perimeter security, was able to move freely around the agency's network. Two: Perimeter-centric cyber security policies, mandates, and techniques are necessary, but insufficient and ineffective in protecting U.S. government cyber assets alone. Three: These cyber-attacks will continue, but we can greatly increase our ability to mitigate them and limit the damage and severity of the attacks when they do.    So in today's legacy networks, there are a lot of perimeter-centric technologies that are designed to stop an attacker from getting inside a network. Clearly, this approach is not sufficient to combat today's cyber-attacks. Perimeter-centric security solutions are analogous to a locked door that can only be accessed with a key. The primary function of the door is to deny initial unauthorized entry by anyone who does not have a key. However, once the door is forced open or breached, the unauthorized actor is free to move throughout unabated.    In order to effectively prevent an attacker from moving freely around the network, agencies must compartmentalize their existing network perimeter security by adding zero trust or micro-segmented network environments within the data center. A zero trust environment prevents unauthorized lateral movement within the data center by establishing automated governance rules that manage the movement of users and data between business systems or applications within the data center network. When a user or system breaks the rules, the potential threat incident is compartmentalized and security staff can take any appropriate remediation actions. To build on the analogy above, compartmentalization is equivalent to securing each interior room with locks, limiting the intruder's ability to move around freely within the house significantly. This mitigates the magnitude of a perimeter security breach, or break-in. These new approaches are already the gold standard in commercial industry and need to become the gold standard across the federal government.    VMWare has seen many government agencies conclude that the most effective means of mitigating the potential for a breach is to build a new network or data center called a ``greenfield'' environment with enhanced security protocols. Agencies reach this conclusion because existing data centers, or ``brownfield'' environments, are assumed to be compromised and unsalvageable. This is a legitimate strategy. However, it fails to address the persistent security threat to existing cyber infrastructure.    There are two main issues with this approach. Existing networks or data centers continue to operate while the new environment is being provisioned, which leaves sensitive data vulnerable to continuing attack. It can take months or years to stand up a new greenfield environment. As we've seen, this is what happened with the attack at OPM. They were building a new, enhanced network but the attack occurred on the existing system. Without clear cyber security guidelines mandating new software based security strategies that go beyond perimeter-centric security, the new environments are subject to attack as soon as they become operational.    In an era of constrained resources and imminent threat, this approach is insufficient and untimely. Agencies have the ability today to upgrade the security posture of their existing cyber infrastructure and add zero trust software defined solutions that are inherently more cost-effective than new, expensive hardware-based solutions. By deploying these technologies within our nation's existing networks and data centers, agencies can avoid billions of dollars of additional investment in new greenfield infrastructure when the compelling driver for a greenfield investment is strictly security related.    Thank you very much for the opportunity to testify today, and I look forward to answering the Committee's questions.</t>
   </si>
   <si>
-    <t>Clinton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clinton. Thank you, Madam Chair and Members of the Committee. It's an honor to be here. I appreciate the opportunity.    I'd like to focus on five areas I think where the federal government can learn from the private sector. First, government needs to invest much more in cybersecurity. Private-sector spending on cybersecurity has nearly doubled in the last several years to $120 billion annually. The federal non-defense spending on cybersecurity this year will be between $6 and $7 billion. Private-sector spending on cybersecurity will increase 24 percent next year. Federal government spending is increasing about 11 percent. I know of two banks who have a combined cybersecurity budget of $1.25 billion for next year. DHS's entire budget for cybersecurity next year is about $900 million, 75 percent of what two banks are spending by themselves. Cyber crime costs our nation a half trillion dollars a year, yet we are successfully prosecuting maybe one percent of cyber criminals. We simply need to spend more on cybersecurity.    Two, government needs to act with greater urgency. It took Congress six years to pass a modest information-sharing bill. In 2009, major trade associations presented Congress and the Administration detailed recommendations on cybersecurity. In 2011, the House GOP task force report on cybersecurity embraced these recommendations, as did President Obama's Executive Order, but four years after the House task force report, we still have not seen any substantial work on the top recommendation in that report or the Executive Orders. For example, the GAO task force report and the Executive Order and the national infrastructure protection plan all call for the creation of a menu of incentives to promote the adoption of cybersecurity yet aside from the information-sharing bill, the President has not proposed, Congress has not introduced a single incentive strategy bill. Last month GAO reported that 12 of 15 sector-specific agencies had not identified incentives to promote cybersecurity even though that's called for in the national infrastructure protection plan. The President's Executive Order called for the NIST cybersecurity framework to be both cost-effective and prioritized. Three years later, there has been no objective measurement of the framework's effect on improving security, adoption or its cost-effectiveness.    Three: The government needs to educate top leadership as the private sector is doing. In 2014, ISA and AIG created handbook on cybersecurity for corporate boards, which was published by the National Association of Corporate Directors and is the heart of the training program that they are launching. PriceWaterhouseCoopers recently validated the success of this approach. They said boards appear to be listening to the NACD guidance. This year we saw a double-digit increase in board participation in cybersecurity leading to a 24 percent boost in security spending. Other notable outcomes include the identification of key risks, fostering an organizational culture of security, and better alignment of security with overall risk management and business goals.    We believe, Madam Chair, that the government needs a similar program to educate the government equivalence of corporate boards: Members of Congress, members of the Cabinet, agency Secretaries. Most senior government officials are not sophisticated with their understanding of cybersecurity. If they are educated as we're educating the private sector, we think we could have more effective policy.    Four: The government needs to reorganize for the digital age. Over the past several years, the private sector has moved away from the IT department as the central focus of cybersecurity and is evolving a more integrated enterprise-wide risk management approach. Unfortunately, the federal government is still caught up in legacy structure and turf wars that are impeding our efforts. A Bank of America/Merrill Lynch study found in 2015 that the U.S. government is still in the process of determining who will have jurisdiction in cyberspace. Departments, agencies, and commands are all battling for jurisdiction and funding. The result is a fragmented system, muddled political agendas that is hindering the development of a secure system.    And finally, five: Government needs to become more sophisticated in managing their own cybersecurity programs. A 2015 study compared federal civilian agencies with the private sector, and found that the federal agencies ranked dead last in terms of understanding cybersecurity, fixing software problems, and failed to comply with industry standards 75 percent of the time. The reason the government does so badly, according to GAO, is that they simply evaluate by a predetermined checklist. The private sector, on the other hand, uses a risk management approach wherein we anticipate what the future attacks are going to be based on our risk posture and then forward looking attempt to adopt standards and practices.    We believe that the government needs to follow the private sector's lead. They need to become more educated, more sophisticated, and more innovative and act with greater emergency and commitment with respect to cybersecurity.    I appreciate the opportunity to speak to you today. Thank you.</t>
   </si>
   <si>
@@ -109,9 +88,6 @@
     <t xml:space="preserve">    Mr. Clinton. I agree completely with Mr. Wood, and I think this speaks to part of the education issue that I was speaking to. We need to have a better understanding of the breadth of cybersecurity. What you're talking about, Madam Chairman, is frankly not an IT problem; it is an economic problem. That's what cybersecurity is. It is not an IT problem, it is an economic problem, and we need to find a way to move away from, as Mr. Wood said, lowest cost items, particularly in the federal space. We have examples where federal agencies are buying equipment off eBay from nonsecure suppliers because it's lower in cost, and while we appreciate the tension and the need for economy in these times, we have to understand that there is a direct tradeoff between economy and security, and we're just going to have to come to grips with that, and we haven't. I think if we could educate the federal leadership in the way we're educating corporate boards--where by the way we had exactly the same problem a few years ago. We might be able to get a better appreciation of the interplay between the economics of cybersecurity and the technology of cybersecurity.    The real problem that you're speaking to, in my opinion, mostly comes in the smaller business elements of cybersecurity. If you're going to deal with, for example, the major defense contractors, frankly, you compensate them perfectly well and they have pretty good cybersecurity, but because of the procurement system, they are required essentially to farm out a lot of the procurement to smaller firms across the country in Congressional districts and those smaller firms do not have the economies of scale to meet the cybersecurity standards that the primes have. We have to find a way to provide incentives for those smaller companies to come up to grade because it is not economic from their business point of view in order to do that. Now, we think that there are a number of suggestions that we've made and I referred to in my oral statement and in the trade association paper that can talk about how we can better incentivize the smaller companies so that we can get them up closer to where the majors are, and if we can do that, we can achieve our goal, which is a cybersecure system as opposed to cybersecure entities.    Chairwoman Comstock. Mr. Schneider?</t>
   </si>
   <si>
-    <t>Schneider</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schneider. I think another thing--this isn't directly a contract issue--is to use the tools that they've already purchased. I think one thing we see a lot in both the private sector and in the public sector is the acquisition of technologies that then aren't even configured properly and used properly. So a lot of the investment that happens both within private organizations as well as the public organizations is to take the technology purchases and make sure that you have the right human capital and the right best practices to deploy those properly. I mean, the most cost-effective thing you can do is use the money that you've already spent more wisely, so I think that's one key that we see as well.    Chairwoman Comstock. Okay. Thank you.    Dr. Casado?</t>
   </si>
   <si>
@@ -271,9 +247,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    All of this hearing isn't focused on research. I know that Mr. Wood had addressed research as a component for growth in this region, in this area.    As you know, the government plays an important role in supporting cutting-edge research on all aspects of cybersecurity from prevention to detection to recovery. And through agencies such as the National Science Foundation, the National Institute of Standards and Technology, and the Department of Homeland Security, we fund everything from basic research to testbeds for emerging technologies. And all these federal investments in cybersecurity R&amp;D are coordinated under the longstanding networking and information technology R&amp;D programs.    So while Mr. Wood did raise the issue of research, are there recommendations that you, Mr. Wood, or any of our individuals who are testifying, any recommendations that you would have about federal agencies and how to set research priorities and what major research gaps might exist out there so that we can better partner in a more effective manner with research opportunity? Mr. Wood?</t>
   </si>
   <si>
@@ -304,9 +277,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Chairwoman Comstock, and I thank the witnesses for being here today and for your testimony.    Question: When we talk about cybersecurity and these breaches whether in the private sector or in the government, and whether we describe them as hackers or something more sophisticated, every time this is done either in the private sector or to a government agency or entity, would you describe that as criminal behavior? Is that a violation of a state or federal statute in some respect?</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t xml:space="preserve">    Mr. LaHood. Thank you.    Chairwoman Comstock. Thank you, and I now recognize Ms. Bonamici.</t>
   </si>
   <si>
-    <t>Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Madam Chair, and thank you for holding this hearing. It's such an important issue, and certainly one where there's a lot of room for bipartisan cooperation. I think Mr. Clinton identified the challenge of setting policy in this area because the technology always changes so much faster than policy changes, so that being said, I really look forward to working with all my colleagues and continuing to raise awareness about this important issue, and also come up with policy that not only addresses the issue but prevents it.    I was recently out in Oregon visiting ID Experts, which is an Oregon business that specializes in healthcare, health data breaches. This is not just a federal issue, as some of my colleagues might have suggested. I mean, look at the Anthem Blue Cross. We're talking about millions of people here. And most people think--when they think about identity theft, think about the financial consequences, but with medical identity, if someone gets a procedure or prescription or something and that is entered into the individual's electronic health records, there are health risks involved in that as well as financial risks, and it's no surprise that the majority of people don't carefully review their explanation of benefits statements just like a lot of people don't carefully review their financial statements, their credit card statements that might alert them to something.    I want to follow up on something Mr. Lipinski started this conversation about the psychological aspects and ask you, Mr. Schneider, in your testimony you say this is--put a picture in my mind here like the lion in the wild who stalks a watering hole for unsuspecting prey, cyber criminals lie in wait on legitimate websites that they previously compromised and used to infect visitors. Most of these attacks rely on social engineering, simply put, trying to trick people into doing something that they would never do if fully cognizant of their actions. For this reason, we often say that the most successful attacks are as much psychology as they are technology. So now I'm going to have this lion--this vision of a lion waiting and maybe that'll help stop me from clicking on things that I shouldn't click on.    But Mr. Schneider, could you talk a little bit about whether do we need to fund more behavioral or social science research? Do we need to do a better job educating people about those risks and how to identify them? How do we get in--are we adequately addressing that psychological aspect? Because when we talk about the risk, and I think Mr. Casado, you--Dr. Casado, you brought this issue up as well that we have to do more to prevent that. So Dr. Casado or Mr. Schneider, could you address that, please?</t>
   </si>
   <si>
@@ -406,9 +373,6 @@
     <t xml:space="preserve">    Ms. Bonamici. Thank you. My time is expired. I yield back. Thank you, Madam Chair.    Chairwoman Comstock. Thank you, and I now recognize Mr. Palmer, and actually, Dr. Casado, we'll have to work on that birthday if you want to let your sister know right now what the day is.</t>
   </si>
   <si>
-    <t>Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairwoman. I'm happy to report for the record that my sister does remember my birthday but my brothers do not.    On that same line, though, Dr. Casado, you can have the best technology in the world, you can have great training, but if employees are negligent in their use of it, you're still exposing yourself, and I bring this up in the context of an article that was in the Wall Street Journal back June--actually it was June 9th, and it relates to the fact that the Immigration and Customs Enforcement Agency had sent a memo to their employees in 2011 because they had seen an uptick in cyber-attacks related to employees using the federal server to access their personal websites or their personal email. Unfortunately, the labor union filed a grievance and prevented them from doing that, and that's apparently where one of the breaches occurred later last year. And my question is, and this would be both for corporations and for the federal government, does it make sense to prevent employees either in the private sector or in the government sector from using their company servers or the federal servers to access personal information--their personal servers, their personal websites, their emails?</t>
   </si>
   <si>
@@ -445,9 +409,6 @@
     <t xml:space="preserve">    Mr. Palmer. My time's expired but I do want to thank the witnesses for the clarity of your answers. This has been an excellent hearing.    Thank you, Madam Chairwoman, and I yield back.    Chairwoman Comstock. Thank you, and I now recognize Mr. Swalwell.</t>
   </si>
   <si>
-    <t>Swalwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Madam Chairwoman, and I want to first thank each of the panelists for their service and for talking about this important issue, and Mr. Casado, I want to highlight that you graduated from Stanford University in the Bay Area and also that you began your career at Lawrence Livermore National Laboratory, which is in my Congressional district, and so I'm honored to represent the folks there as well as Sandia National Laboratory, and many of them are working on this issue.    And Mr. Casado, your solution for cybersecurity is to wall off certain segments of one's network in order to prevent cyber intruders who have penetrated outer defenses from gaining access to particularly sensitive information. You argue that such new approaches are already the gold standard for commercial industry and need to become the gold standard across the federal government. How much time and resources would it take for the federal government to do this, and are the costs worth the benefits?</t>
   </si>
   <si>
@@ -466,9 +427,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and I would also like to commend the panel today for your very informative testimony and also for the zeal that you have in working in cybersecurity, and I believe it's, you know, potentially the war of the future that we're fighting here in cybersecurity, and I'm from Arkansas, and just for personal reasons, Mr. Clinton, do you have any Arkansas ties just out of curiosity? Okay. And I've been listening to the testimony and the answers to the questions. I've got a 20-year-old college student, and I had a fascinating conversation over Christmas, and you guys were talking about how millennials are always connected, and he was telling me that that's a huge consideration where you take a job now, what the connectivity's feed is, you know, and that wasn't something we considered when I was getting out of college but it played a big key in where they would go to work and where they would eventually live. So I know we're in this connected world now.    To follow up on Mr. Swalwell's question, he was talking about being on offense and the prosecution, but from the technology side, is it all defensive or are there proactive ways to combat hackers before they make their attack?</t>
   </si>
   <si>
@@ -496,9 +454,6 @@
     <t xml:space="preserve">    Mr. Westerman. Unless you extend it.    Chairwoman Comstock. Now I recognize Mr. Abraham.</t>
   </si>
   <si>
-    <t>Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chairman, for having this great hearing, and I want to thank the witnesses for giving direct answers to direct questions. That's refreshing and somewhat of a novel idea in a Committee hearing, so kudos to you guys for answering straight up. We appreciate that.    Some of you have espoused the value of sharing cybersecurity information whether it be a cyber threat tread or a cyber crime with certainly other companies or government officials. This last cybersecurity bill that we passed last month, did that help or hurt in this area?</t>
   </si>
   <si>
@@ -527,9 +482,6 @@
   </si>
   <si>
     <t>412422</t>
-  </si>
-  <si>
-    <t>Randy Hultgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you so much, Chairwoman. Thank you all for being here. I know a lot of things have already been asked and answered, but as we say around here, not everyone has asked that same question yet, so my turn.    Now, I'm going to try and focus on a couple different things, but thank you. I do think this is so important and I do think the American people, our constituents, are waking up and feeling some of that fear, and wanting to know the right thing to do. So we always want to hear from you of how we can be informing our own constituents of wise decisions along with ourselves, our families and our staff to protect important information. So much of our society, so much of our financial systems is based on consumer confidence, and if there's a feeling that this isn't safe or whatever it is, I think we're going to lose the benefits that much of this technology has, so we want to do this well.    I do want to talk briefly or ask you your thoughts. We've talked a little bit about what government can do better, learning from the private sector, and certainly the private sector is ahead of us in so many areas. We've also heard--I really appreciate it, Mr. Clinton, your response that, you know, for us to say that this is like an airbag problem, it isn't. It's completely different and, you know, so for us to be prescriptive of saying you have to do this, we always pick the wrong technologies always too late. So instead it's really this framework, I think, of a way of thinking of how to solve this problem, but a question I would have is really with impediments that government is putting up to your business or other businesses from new innovation. What would you say may be the greatest impediment that you feel from government from your business innovating or doing what you already do best? Is there something that has been a hurdle that you've had to overcome, Dr. Casado?</t>
@@ -958,11 +910,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -982,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1008,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1034,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1062,11 +1006,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1088,11 +1030,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1114,11 +1054,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1140,11 +1078,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1166,11 +1102,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1192,11 +1126,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1218,11 +1150,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1244,11 +1174,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1270,11 +1198,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1296,11 +1222,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1322,11 +1246,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1348,11 +1270,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1374,11 +1294,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1400,11 +1318,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1426,11 +1342,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1452,11 +1366,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1478,11 +1390,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1504,11 +1414,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1530,11 +1438,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1556,11 +1462,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1582,11 +1486,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1608,11 +1510,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1634,11 +1534,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1660,11 +1558,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1686,11 +1582,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1712,11 +1606,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1738,11 +1630,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1764,11 +1654,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1790,11 +1678,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1816,11 +1702,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1842,11 +1726,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1866,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1894,11 +1774,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1918,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1946,11 +1822,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1970,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1998,11 +1870,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2022,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2048,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2076,11 +1942,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2100,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2128,11 +1990,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2152,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2180,11 +2038,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2204,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2232,11 +2086,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2256,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2284,11 +2134,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2308,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2336,11 +2182,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2360,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2388,11 +2230,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2412,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2440,11 +2278,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2464,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2492,11 +2326,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2516,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2542,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2570,11 +2398,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2594,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2622,11 +2446,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2646,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2674,11 +2494,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2698,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2726,11 +2542,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2750,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>85</v>
-      </c>
-      <c r="H71" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2776,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2804,11 +2614,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2828,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
-      </c>
-      <c r="G74" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2856,11 +2662,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2880,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2908,11 +2710,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2932,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2960,11 +2758,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2984,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
         <v>95</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H80" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3012,11 +2806,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3036,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3064,11 +2854,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3088,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3116,11 +2902,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3142,11 +2926,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3166,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3194,11 +2974,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3218,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3246,11 +3022,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3270,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3298,11 +3070,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3322,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3350,11 +3118,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>119</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3376,11 +3142,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>31</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3402,11 +3166,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>119</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3428,11 +3190,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3454,11 +3214,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3480,11 +3238,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3506,11 +3262,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3532,11 +3286,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3558,11 +3310,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3584,11 +3334,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3610,11 +3358,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3636,11 +3382,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3662,11 +3406,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3688,11 +3430,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3714,11 +3454,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>130</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3740,11 +3478,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3766,11 +3502,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>130</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3792,11 +3526,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3818,11 +3550,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>130</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3844,11 +3574,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3870,11 +3598,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3896,11 +3622,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>130</v>
-      </c>
-      <c r="H115" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3922,11 +3646,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>143</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3948,11 +3670,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3974,11 +3694,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>143</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4000,11 +3718,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4026,11 +3742,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4050,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
-      </c>
-      <c r="G121" t="s">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4078,11 +3790,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4104,11 +3814,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4128,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
-      </c>
-      <c r="G124" t="s">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4156,11 +3862,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4180,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
-      </c>
-      <c r="G126" t="s">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4208,11 +3910,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4232,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
-      </c>
-      <c r="G128" t="s">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4258,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
-      </c>
-      <c r="G129" t="s">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4286,11 +3982,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4312,11 +4006,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4338,11 +4030,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>160</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4364,11 +4054,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4390,11 +4078,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>160</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4416,11 +4102,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4442,11 +4126,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>160</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4468,11 +4150,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>31</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4494,11 +4174,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>160</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4518,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>170</v>
-      </c>
-      <c r="G139" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4546,11 +4222,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4570,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
-      </c>
-      <c r="G141" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4598,11 +4270,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4622,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G143" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4650,11 +4318,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4674,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
-      </c>
-      <c r="G145" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4702,11 +4366,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>23</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4726,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4754,11 +4414,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>23</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20826.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,33 +55,63 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock and Chairman Loudermilk, for holding this hearing. I want to thank all the witnesses for being here today, and I look forward to hearing your testimony.    Chairwoman Comstock had mentioned in her opening statement the real need to make sure we do more in this area. We need to make sure that both in the public and private sector that people are held responsible for the hacks that do occur. We need to make sure that we have in place what we can do here, that Congress does what it can do to make sure that there is an incentive both in the public and private sector to try to avoid these hacks, this loss of information, so I'm very interested to hear more from our witnesses on this.    I am certainly pleased that we're holding our first hearing on cybersecurity, which is certainly an increasingly urgent challenge for our national security and the personal security of every American. It's important that we continue to hear from experts in government and the private sector about the latest developments with respect to both the risks that confront security in cyberspace, and the technologies and policies to combat those threats.    Our Committee plays an important role in both the technology side and the policy side, and this is an area in which Members have successfully collaborated across the aisle. In December 2014, Congress enacted the Cybersecurity Enhancement Act, a bipartisan research, education, and standards bill that I worked on with Mr. McCaul over several years. Over the last month, Congress enacted a cybersecurity law to promote information sharing and strengthen coordination between the private and public sectors. As a Committee and as Congress, we need to continue to confront these serious cyber threats.    Unfortunately, we continue to see an increase in major cyber-attacks in both the public and private sectors. In a hearing we held here in July, we heard about the significant breach at the Office of Personnel Management, in which the personal information of millions of current and former federal employees and job applicants was compromised, including some of us here. Highly sensitive security-clearance files were also compromised, making it not just a problem for all those individuals but a national security issue as well.    We have laws in place to address the security of federal information systems. The Federal Information Security Management Act, or FISMA, and subsequent amendments establish the necessary policies and procedures for the development of standards and protocols. NIST has an important role in this. But it is clear that federal agencies need to do a better job implementing NIST's standards and protocols, and that Congress needs to give them adequate resources to do so.    The private sector is also under constant threat from cyberattacks. In the case of large-size companies, a recent study conducted by the Ponemon Institute found that there was a 19 percent increase in cybercrimes between 2014 and 2015. The study also found that cybercrimes cause significant economic damage. For 2015, cyber attacks resulted in a total average cost of $15 million. While the threats continue to grow, many in the private sector are increasingly taking steps to protect their information systems and the personal information of Americans that they gather in their routine business.    To reduce our risk and improve the security of cyberspace, it will take the combined effort of the Federal government, the private sector, our researchers and engineers, and the general public. Although cyber attacks are becoming more sophisticated, often cyber attacks are successful because of human error, such as unknowingly opening a malicious email or allowing one's credentials to be compromised. Part of our effort must be to educate the public. Another part must be to better understand human behavior in order to make new tools and technologies more effective, such as the work being done at NIST and elsewhere to move beyond passwords.    I look forward to hearing from our witnesses today about industry cybersecurity best practices as well as opportunities for public-private partnerships that could help address our shared cybersecurity challenges. I'm also interested in hearing to what extent private businesses and organizations voluntarily implement FISMA standards developed by NIST, and how you may be participating in or benefiting from other efforts at NIST, including the Cybersecurity Center for Excellence and the Framework for Critical Infrastructure.    Thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Well, thank you, Chairwoman Comstock, especially for continuing this important discussion on the security of our federal information systems.    I would also like to thank our witnesses for being here today to help us understand industry's best practices when it comes to cybersecurity. I look forward to hearing about lessons learned and how to apply those lessons to our federal systems to help prevent future cyber-attacks.    It is clear that our federal systems are not adequately protected. In fact, just this past summer, a witness from the Government Accountability Office before this Committee stated, ``It is incumbent upon federal agencies to implement the appropriate security controls to mitigate those risks at a cost-effective and acceptable level, and we found out that agencies have not consistently implemented agency-wide information security programs to mitigate that risk effectively.'' When I asked that same witness to grade our federal cybersecurity, he gave it a D. A rating of D is not an acceptable grade.    This Administration owes it to the American people to significantly improve this deplorable standing in order to sufficiently protect government information and thereby our national security. This Administration also needs to explain how it is protecting the American people's personal information. As I stated at the hearing this summer, the breach of data from the Office of Personnel Management is exactly why the Oversight Subcommittee that I chair continues to look into the collection of Americans' personal data through the website HealthCare.gov. In fact, I am still waiting for complete answers from the Administration to questions I posed in letters to the Office of Science and Technology Policy and the Centers for Medicare and Medicaid Services back in June. This Administration has not sufficiently explained why it was ever necessary to indefinitely store Americans' personnel--personal data they submitted when logging into the HealthCare.gov website, particularly those who did not end up enrolling. One would think that President Obama would agree that such a practice is unnecessary as he identified cybersecurity as one of the most serious economic and national security challenges we face as a nation, but one that we as a government or as a country are not adequately prepared to counter. If cybersecurity is one of the most serious challenges that this government faces, why on earth would the government ever consider storing all of this personal information indefinitely in data warehouses? As the Chairman of the Oversight Subcommittee, I will continue to ask questions and demand answers until we are satisfied that federal departments and agencies are making decisions in the best interest of protecting the personal information of all Americans. The safety and security of Americans and this Nation must be our number one priority.    Having continuously subpar security of our federal systems is embarrassing and must be rectified immediately. The delays must stop. It's time to finally do something about federal cybersecurity.    I look forward to the witnesses' testimony at today's hearing. I hope to learn more about the various industry best practices and lessons learned in hopes that it will shed light on what the government could and should be doing to protect our citizens from constantly evolving cyber threats.    Madam Chairwoman, I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Chairwoman Comstock and Chairman Loudermilk, for holding today's hearing. Thank you, witnesses, for spending Friday morning with us.    As we keep relearning after each new attack, cybersecurity is obviously a critical and daunting challenge. Today the data we create, store, access, and often share online contains information about almost every aspect of our lives. Our collective digital universe is composed of banking records, birth records, personal health files, government records, tax filings, on and on.    Last week, I was going on realage.com to see how long I was going to live, and now the cybersecurity attackers are going to know my cholesterol, my weight, the name of my dog, and the last year I had a cigarette. I took an Alzheimer's test last night online, which results I hope don't show up in my next campaign.    We electronically communicate with our kids' teachers about their academic achievements. I find that none of my kids will return my phone calls but they will text me right back. News flash: None of this information is secure, and immediate access to these digital connections provides tremendous advantages for businesses and consumers. In our family business, we're highly dependent on all the information we've gathered on our customers, the next time Congresswoman Bonamici needs an oil change on her Subaru, for example. It also offers abundant nefarious opportunities for cyber criminals, foreign governments intent on cyber espionage, and perhaps even more dangerous actors.    Protecting against known and emerging cyber threats is an ongoing enterprise that requires consistent vigilance and continuing adoption. Last year's OPM attack was a huge concern for all the federal workers that live in our districts across the country, and there were management and procedural failures at OPM that are now being addressed.    But nobody is immune to cyber attacks, not in the government and not in the private sector. According to Privacy Rights Clearinghouse, a nonprofit, nonpartisan, organization that tracks cyberattacks, in 2015 there were 17 reported breaches against .gov or .mil addresses that resulted in access to 27.8 million records. The big one there obviously was OPM. During the same time period, the private sector experienced 184 confirmed breaches that resulted in exposure of 131.5 million records. It's a huge problem for both sides.    I believe that sharing best practices to reduce IT vulnerabilities, educate federal workers is very important. I really look forward to today's hearing. I'm sure there are many lessons that we will learn from you today. I also look forward to the equal certainty that there is much that the private sector can learn from the government, especially the Department of Defense and our intelligence community.    So I look forward to today's discussion, and thank you so much for being with us.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chair--Madam Chair, I yield back.    Chairman Smith. Thank you, Madam Chair.    Last year, more than 178 million records of Americans were exposed in cyber-attacks. The breach of the Office of Personnel Management alone compromised the personal information of more than 20 million people, which included Members and staff of this Committee.    The United States is a top target for foreign countries. Cyber criminals and hacktivists exploit vulnerabilities in our networks and cyber systems to obtain valuable information. The number of cybersecurity incidents reported by federal agencies has increased over 1,000 percent in the last eight years. In 2014, more than 67,000 cyber-attacks were reported, and many others, of course, were not.    A number of federal agencies guard America's cybersecurity interests. Several are under the jurisdiction of the Science Committee. These include the National Science Foundation, the National Institute of Standards and Technology, the Department of Homeland Security's Science and Technology Directorate, and the Department of Energy. All of these agencies support critical research and development to promote cybersecurity and set federal standards.    However, it is clear that too many federal agencies, like OPM, fail to meet the basic standards of information security. More must be done to ensure agencies make cybersecurity a top priority.    Last year, audits revealed that 19 of 24 major federal agencies failed to meet the basic cybersecurity standards mandated by law yet the Administration has allowed deficient systems to stay online.    What are the consequences when a federal agency fails to meet its basic duties to protect sensitive information? What does it say to federal employees, not to mention our adversaries, when cabinet secretaries don't take cybersecurity seriously and fail to follow the most basic email security practices involving our country's classified information?    In the private sector, those who neglect their duty to keep the information of their customers secure are usually fired. In the federal government, it seems the only people penalized are the millions of innocent Americans who have their personal information exposed.    During the last Congress, the Science Committee approved the Cybersecurity Enhancement Act, which was signed into law. This law improves America's cybersecurity abilities and strengthens strategic planning for federal cybersecurity research and development. It supports NSF scholarships to improve the quality of our cybersecurity workforce. It also improves cybersecurity research, development, and public outreach organized by NIST.    Last month, a similar bill, the Cybersecurity Act of 2015, was signed into law. Very importantly, this bill encourages private companies to voluntarily share information about eminent cyber threats with each other as well as with the federal government.    The Science Committee will continue its efforts to support research and development to strengthen America's cyber defenses. I look forward to hearing from our witnesses today about what more we can do to support innovation and help set national standards and guidelines that will enhance our country's cybersecurity.    Thank you again, Madam Chair, and I yield back.</t>
   </si>
   <si>
+    <t>Wood</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wood. Thank you. I'd like to thank Chairwoman Comstock and the other Chairs and Ranking Members for the invitation to share some thoughts on behalf of Telos Corporation on industry best practices for cybersecurity and risk management.    As I noted in my written testimony, Telos protects the world's most security-conscious enterprises, providing our customers with solutions and services for cybersecurity, secure mobility, and identity management.    The first point I'd like to highlight is that all enterprises, public and private, need to emphasis cyber hygiene in their day-to-day operational practices and employee training.    Why do I make this first point? Because the 2015 Verizon data breach investigations report found that the overwhelming common denominator in security incidents is people. Nearly all of the security incidents Verizon cataloged might have been avoided if organizations had taken basic steps to help their employees follow simple cybersecurity precautions.    Here are five basic steps that organizations should take to help better protect themselves from attacks. First, establish and enforce cybersecurity policies and procedures. Second, include effective password management practices. Third, require regular security awareness training. Fourth, implement timely updates and patches to manage vulnerabilities. And fifth, to use up-to-date endpoint security solutions. These five basic steps serve as the foundation for a strong cybersecurity program. Every IT security professional knows them, and yet the importance of following through with them cannot be overstated.    Further, these practices must be embraced in the boardroom, and by management, so that a culture of cybersecurity is created throughout the organization from the top town.    That being said, every organization with high-value digital assets needs to assume it has already been breached or will be. This leads to my second point, and that is that incident response and remediation are just as important to organizations as cyber defense and depth strategies.    Telos has developed a rigorous framework for incident response with essential steps like preparation, containment, eradication and recovery, which we use ourselves and implement for our customers.    Further, it isn't realistic to expect every organization to have the time or financial and human resources needed to successfully defend everything. That's why management is so critical to effective cybersecurity. Risk management involves identifying, evaluating, and either accepting or mitigating uncertainty in decision making.    Private and public sector organizations need to make cost-benefit choices about which systems to defend and how to defend them based on the likelihood of an asset being attacked, the value of the asset being attacked, the cost of defending the asset, and the cost of losing the asset. That approach is reflected in the continuous diagnostic and mitigation program established by Congress ``to provide adequate risk-based and cost-effective cybersecurity and more efficiently allocate cybersecurity resources.'' This continuous diagnostic to mediation program, or CDM program, extends continuous monitoring into the areas of diagnostics and mitigation while acknowledging that risk management is called for when you have to meet nearly infinite needs with finite resources.    That's also the value of initiatives like the NIST risk management framework and the NIST cybersecurity framework. They put cybersecurity solutions and best practices in the context of risk management and compliance, which brings me to my third point. The standards in the NIST cybersecurity framework are very good but they cannot succeed unless companies follow them. We should be looking for ways that market forces can incentivize companies to voluntarily take the strongest possible actions to protect themselves, which includes following the NIST standards and best practices.    The various critical infrastructure sectors are just that: critical. They're so important to our national defense, our economy, and our way of life that it's imperative government and private sectors encourage organizations in these sectors to use best security practices.    One promising area of incentivizing companies is tied to the growth of the cyber insurance market. The Commerce Department has described cyber insurance as ``an effective market-driven way of increasing cybersecurity.'' The Treasury Department has also suggested that the increasing demand for cyber insurance may help drive private sector policyholders to adopt the NIST cybersecurity framework. As insurance companies get their arms around the cybersecurity actuarial data they accumulate with each new breach, they'll want to have insights into what their clients are doing to protect themselves. Are they applying sufficient ongoing protection for their systems and data? Are they using the NIST framework or an equivalent standard? In fact, insurance companies may well require their clients to adopt the NIST framework in order to demonstrate insurability and reduce their premiums. When that happens, we could see greater market-based pressure brought to bear that will effectively require companies to do the same. So market forces and the fear of legal liability may make NIST voluntary guidelines the de facto standards for companies to demonstrate to insurers or in court that they've exercised all due care to protect their customers and their assets.    One additional point: Cybersecurity is just too important to do on the cheap. Overreliance on ``lowest price technically acceptable'' contracts can be very risky in a field that has so little room for error.    Similarly, our fifth war-fighting domain, cyberspace, must be appropriately funded. U.S. Cyber Command has been funded at a level this year that represents a mere 1/1000ths of the overall DOD budget. By contrast, just four banks--JP Morgan Chase, Bank of America, Citibank and Wells Fargo--are spending three times the amount on cybersecurity. JP Morgan, after they got hacked, decided to double their IT security spend from $250 million a year to $500 million a year, more than all of Cyber Command. The financial sector is an example of the private sector taking its cybersecurity risk management responsibilities very seriously and devoting the resources necessary to protect themselves.    Again, I appreciate the opportunity to share with you Telos's perspective, and I'd be glad to answer any questions. Thank you.</t>
   </si>
   <si>
+    <t>Casado</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Casado. Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, Ranking Member Beyer, and other Members of the Committee, thank you for the opportunity to testify today. I'm super thrilled to be here.    I'm Martin Casado, Senior Vice President and General Manager of Networking and Security at VMWare. VMWare is the fourth largest software company in the world with 2014 revenues of over $6 billion and over 18,000 employees.    The nature of security breach at the Office of Personnel Management was not particularly unique. Hackers were able to penetrate perimeter networks' security systems and gain access to OPM and Department of Interior systems where they were free to access and steal sensitive data over a period of several months. Hackers typically use this attack methodology because traditional perimeter-centric security systems are structurally designed to be doors to the network. These doors allow authorized users access to network systems and prevent unauthorized users from entering a network or data center.    However, perimeter security is a single point of entry that must be breached or circumvented in order to enter the data center network. Once the intruder has passed the perimeter, there's no simple means to stop malicious activity from moving throughout the data center. In many cases, the response from companies, agencies, and network security vendors is to add more security technology to the perimeter, which ignores the structural issue, creating basically a Maginot line.    VMWare submits three salient points for consideration. One: Every recent agency breach has had one thing in common: the attacker, once inside the perimeter security, was able to move freely around the agency's network. Two: Perimeter-centric cyber security policies, mandates, and techniques are necessary, but insufficient and ineffective in protecting U.S. government cyber assets alone. Three: These cyber-attacks will continue, but we can greatly increase our ability to mitigate them and limit the damage and severity of the attacks when they do.    So in today's legacy networks, there are a lot of perimeter-centric technologies that are designed to stop an attacker from getting inside a network. Clearly, this approach is not sufficient to combat today's cyber-attacks. Perimeter-centric security solutions are analogous to a locked door that can only be accessed with a key. The primary function of the door is to deny initial unauthorized entry by anyone who does not have a key. However, once the door is forced open or breached, the unauthorized actor is free to move throughout unabated.    In order to effectively prevent an attacker from moving freely around the network, agencies must compartmentalize their existing network perimeter security by adding zero trust or micro-segmented network environments within the data center. A zero trust environment prevents unauthorized lateral movement within the data center by establishing automated governance rules that manage the movement of users and data between business systems or applications within the data center network. When a user or system breaks the rules, the potential threat incident is compartmentalized and security staff can take any appropriate remediation actions. To build on the analogy above, compartmentalization is equivalent to securing each interior room with locks, limiting the intruder's ability to move around freely within the house significantly. This mitigates the magnitude of a perimeter security breach, or break-in. These new approaches are already the gold standard in commercial industry and need to become the gold standard across the federal government.    VMWare has seen many government agencies conclude that the most effective means of mitigating the potential for a breach is to build a new network or data center called a ``greenfield'' environment with enhanced security protocols. Agencies reach this conclusion because existing data centers, or ``brownfield'' environments, are assumed to be compromised and unsalvageable. This is a legitimate strategy. However, it fails to address the persistent security threat to existing cyber infrastructure.    There are two main issues with this approach. Existing networks or data centers continue to operate while the new environment is being provisioned, which leaves sensitive data vulnerable to continuing attack. It can take months or years to stand up a new greenfield environment. As we've seen, this is what happened with the attack at OPM. They were building a new, enhanced network but the attack occurred on the existing system. Without clear cyber security guidelines mandating new software based security strategies that go beyond perimeter-centric security, the new environments are subject to attack as soon as they become operational.    In an era of constrained resources and imminent threat, this approach is insufficient and untimely. Agencies have the ability today to upgrade the security posture of their existing cyber infrastructure and add zero trust software defined solutions that are inherently more cost-effective than new, expensive hardware-based solutions. By deploying these technologies within our nation's existing networks and data centers, agencies can avoid billions of dollars of additional investment in new greenfield infrastructure when the compelling driver for a greenfield investment is strictly security related.    Thank you very much for the opportunity to testify today, and I look forward to answering the Committee's questions.</t>
   </si>
   <si>
+    <t>Clinton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clinton. Thank you, Madam Chair and Members of the Committee. It's an honor to be here. I appreciate the opportunity.    I'd like to focus on five areas I think where the federal government can learn from the private sector. First, government needs to invest much more in cybersecurity. Private-sector spending on cybersecurity has nearly doubled in the last several years to $120 billion annually. The federal non-defense spending on cybersecurity this year will be between $6 and $7 billion. Private-sector spending on cybersecurity will increase 24 percent next year. Federal government spending is increasing about 11 percent. I know of two banks who have a combined cybersecurity budget of $1.25 billion for next year. DHS's entire budget for cybersecurity next year is about $900 million, 75 percent of what two banks are spending by themselves. Cyber crime costs our nation a half trillion dollars a year, yet we are successfully prosecuting maybe one percent of cyber criminals. We simply need to spend more on cybersecurity.    Two, government needs to act with greater urgency. It took Congress six years to pass a modest information-sharing bill. In 2009, major trade associations presented Congress and the Administration detailed recommendations on cybersecurity. In 2011, the House GOP task force report on cybersecurity embraced these recommendations, as did President Obama's Executive Order, but four years after the House task force report, we still have not seen any substantial work on the top recommendation in that report or the Executive Orders. For example, the GAO task force report and the Executive Order and the national infrastructure protection plan all call for the creation of a menu of incentives to promote the adoption of cybersecurity yet aside from the information-sharing bill, the President has not proposed, Congress has not introduced a single incentive strategy bill. Last month GAO reported that 12 of 15 sector-specific agencies had not identified incentives to promote cybersecurity even though that's called for in the national infrastructure protection plan. The President's Executive Order called for the NIST cybersecurity framework to be both cost-effective and prioritized. Three years later, there has been no objective measurement of the framework's effect on improving security, adoption or its cost-effectiveness.    Three: The government needs to educate top leadership as the private sector is doing. In 2014, ISA and AIG created handbook on cybersecurity for corporate boards, which was published by the National Association of Corporate Directors and is the heart of the training program that they are launching. PriceWaterhouseCoopers recently validated the success of this approach. They said boards appear to be listening to the NACD guidance. This year we saw a double-digit increase in board participation in cybersecurity leading to a 24 percent boost in security spending. Other notable outcomes include the identification of key risks, fostering an organizational culture of security, and better alignment of security with overall risk management and business goals.    We believe, Madam Chair, that the government needs a similar program to educate the government equivalence of corporate boards: Members of Congress, members of the Cabinet, agency Secretaries. Most senior government officials are not sophisticated with their understanding of cybersecurity. If they are educated as we're educating the private sector, we think we could have more effective policy.    Four: The government needs to reorganize for the digital age. Over the past several years, the private sector has moved away from the IT department as the central focus of cybersecurity and is evolving a more integrated enterprise-wide risk management approach. Unfortunately, the federal government is still caught up in legacy structure and turf wars that are impeding our efforts. A Bank of America/Merrill Lynch study found in 2015 that the U.S. government is still in the process of determining who will have jurisdiction in cyberspace. Departments, agencies, and commands are all battling for jurisdiction and funding. The result is a fragmented system, muddled political agendas that is hindering the development of a secure system.    And finally, five: Government needs to become more sophisticated in managing their own cybersecurity programs. A 2015 study compared federal civilian agencies with the private sector, and found that the federal agencies ranked dead last in terms of understanding cybersecurity, fixing software problems, and failed to comply with industry standards 75 percent of the time. The reason the government does so badly, according to GAO, is that they simply evaluate by a predetermined checklist. The private sector, on the other hand, uses a risk management approach wherein we anticipate what the future attacks are going to be based on our risk posture and then forward looking attempt to adopt standards and practices.    We believe that the government needs to follow the private sector's lead. They need to become more educated, more sophisticated, and more innovative and act with greater emergency and commitment with respect to cybersecurity.    I appreciate the opportunity to speak to you today. Thank you.</t>
   </si>
   <si>
@@ -88,6 +121,9 @@
     <t xml:space="preserve">    Mr. Clinton. I agree completely with Mr. Wood, and I think this speaks to part of the education issue that I was speaking to. We need to have a better understanding of the breadth of cybersecurity. What you're talking about, Madam Chairman, is frankly not an IT problem; it is an economic problem. That's what cybersecurity is. It is not an IT problem, it is an economic problem, and we need to find a way to move away from, as Mr. Wood said, lowest cost items, particularly in the federal space. We have examples where federal agencies are buying equipment off eBay from nonsecure suppliers because it's lower in cost, and while we appreciate the tension and the need for economy in these times, we have to understand that there is a direct tradeoff between economy and security, and we're just going to have to come to grips with that, and we haven't. I think if we could educate the federal leadership in the way we're educating corporate boards--where by the way we had exactly the same problem a few years ago. We might be able to get a better appreciation of the interplay between the economics of cybersecurity and the technology of cybersecurity.    The real problem that you're speaking to, in my opinion, mostly comes in the smaller business elements of cybersecurity. If you're going to deal with, for example, the major defense contractors, frankly, you compensate them perfectly well and they have pretty good cybersecurity, but because of the procurement system, they are required essentially to farm out a lot of the procurement to smaller firms across the country in Congressional districts and those smaller firms do not have the economies of scale to meet the cybersecurity standards that the primes have. We have to find a way to provide incentives for those smaller companies to come up to grade because it is not economic from their business point of view in order to do that. Now, we think that there are a number of suggestions that we've made and I referred to in my oral statement and in the trade association paper that can talk about how we can better incentivize the smaller companies so that we can get them up closer to where the majors are, and if we can do that, we can achieve our goal, which is a cybersecure system as opposed to cybersecure entities.    Chairwoman Comstock. Mr. Schneider?</t>
   </si>
   <si>
+    <t>Schneider</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schneider. I think another thing--this isn't directly a contract issue--is to use the tools that they've already purchased. I think one thing we see a lot in both the private sector and in the public sector is the acquisition of technologies that then aren't even configured properly and used properly. So a lot of the investment that happens both within private organizations as well as the public organizations is to take the technology purchases and make sure that you have the right human capital and the right best practices to deploy those properly. I mean, the most cost-effective thing you can do is use the money that you've already spent more wisely, so I think that's one key that we see as well.    Chairwoman Comstock. Okay. Thank you.    Dr. Casado?</t>
   </si>
   <si>
@@ -247,6 +283,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    All of this hearing isn't focused on research. I know that Mr. Wood had addressed research as a component for growth in this region, in this area.    As you know, the government plays an important role in supporting cutting-edge research on all aspects of cybersecurity from prevention to detection to recovery. And through agencies such as the National Science Foundation, the National Institute of Standards and Technology, and the Department of Homeland Security, we fund everything from basic research to testbeds for emerging technologies. And all these federal investments in cybersecurity R&amp;D are coordinated under the longstanding networking and information technology R&amp;D programs.    So while Mr. Wood did raise the issue of research, are there recommendations that you, Mr. Wood, or any of our individuals who are testifying, any recommendations that you would have about federal agencies and how to set research priorities and what major research gaps might exist out there so that we can better partner in a more effective manner with research opportunity? Mr. Wood?</t>
   </si>
   <si>
@@ -277,6 +319,12 @@
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Chairwoman Comstock, and I thank the witnesses for being here today and for your testimony.    Question: When we talk about cybersecurity and these breaches whether in the private sector or in the government, and whether we describe them as hackers or something more sophisticated, every time this is done either in the private sector or to a government agency or entity, would you describe that as criminal behavior? Is that a violation of a state or federal statute in some respect?</t>
   </si>
   <si>
@@ -343,6 +391,9 @@
     <t xml:space="preserve">    Mr. LaHood. Thank you.    Chairwoman Comstock. Thank you, and I now recognize Ms. Bonamici.</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Madam Chair, and thank you for holding this hearing. It's such an important issue, and certainly one where there's a lot of room for bipartisan cooperation. I think Mr. Clinton identified the challenge of setting policy in this area because the technology always changes so much faster than policy changes, so that being said, I really look forward to working with all my colleagues and continuing to raise awareness about this important issue, and also come up with policy that not only addresses the issue but prevents it.    I was recently out in Oregon visiting ID Experts, which is an Oregon business that specializes in healthcare, health data breaches. This is not just a federal issue, as some of my colleagues might have suggested. I mean, look at the Anthem Blue Cross. We're talking about millions of people here. And most people think--when they think about identity theft, think about the financial consequences, but with medical identity, if someone gets a procedure or prescription or something and that is entered into the individual's electronic health records, there are health risks involved in that as well as financial risks, and it's no surprise that the majority of people don't carefully review their explanation of benefits statements just like a lot of people don't carefully review their financial statements, their credit card statements that might alert them to something.    I want to follow up on something Mr. Lipinski started this conversation about the psychological aspects and ask you, Mr. Schneider, in your testimony you say this is--put a picture in my mind here like the lion in the wild who stalks a watering hole for unsuspecting prey, cyber criminals lie in wait on legitimate websites that they previously compromised and used to infect visitors. Most of these attacks rely on social engineering, simply put, trying to trick people into doing something that they would never do if fully cognizant of their actions. For this reason, we often say that the most successful attacks are as much psychology as they are technology. So now I'm going to have this lion--this vision of a lion waiting and maybe that'll help stop me from clicking on things that I shouldn't click on.    But Mr. Schneider, could you talk a little bit about whether do we need to fund more behavioral or social science research? Do we need to do a better job educating people about those risks and how to identify them? How do we get in--are we adequately addressing that psychological aspect? Because when we talk about the risk, and I think Mr. Casado, you--Dr. Casado, you brought this issue up as well that we have to do more to prevent that. So Dr. Casado or Mr. Schneider, could you address that, please?</t>
   </si>
   <si>
@@ -373,6 +424,9 @@
     <t xml:space="preserve">    Ms. Bonamici. Thank you. My time is expired. I yield back. Thank you, Madam Chair.    Chairwoman Comstock. Thank you, and I now recognize Mr. Palmer, and actually, Dr. Casado, we'll have to work on that birthday if you want to let your sister know right now what the day is.</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairwoman. I'm happy to report for the record that my sister does remember my birthday but my brothers do not.    On that same line, though, Dr. Casado, you can have the best technology in the world, you can have great training, but if employees are negligent in their use of it, you're still exposing yourself, and I bring this up in the context of an article that was in the Wall Street Journal back June--actually it was June 9th, and it relates to the fact that the Immigration and Customs Enforcement Agency had sent a memo to their employees in 2011 because they had seen an uptick in cyber-attacks related to employees using the federal server to access their personal websites or their personal email. Unfortunately, the labor union filed a grievance and prevented them from doing that, and that's apparently where one of the breaches occurred later last year. And my question is, and this would be both for corporations and for the federal government, does it make sense to prevent employees either in the private sector or in the government sector from using their company servers or the federal servers to access personal information--their personal servers, their personal websites, their emails?</t>
   </si>
   <si>
@@ -409,6 +463,9 @@
     <t xml:space="preserve">    Mr. Palmer. My time's expired but I do want to thank the witnesses for the clarity of your answers. This has been an excellent hearing.    Thank you, Madam Chairwoman, and I yield back.    Chairwoman Comstock. Thank you, and I now recognize Mr. Swalwell.</t>
   </si>
   <si>
+    <t>Swalwell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Madam Chairwoman, and I want to first thank each of the panelists for their service and for talking about this important issue, and Mr. Casado, I want to highlight that you graduated from Stanford University in the Bay Area and also that you began your career at Lawrence Livermore National Laboratory, which is in my Congressional district, and so I'm honored to represent the folks there as well as Sandia National Laboratory, and many of them are working on this issue.    And Mr. Casado, your solution for cybersecurity is to wall off certain segments of one's network in order to prevent cyber intruders who have penetrated outer defenses from gaining access to particularly sensitive information. You argue that such new approaches are already the gold standard for commercial industry and need to become the gold standard across the federal government. How much time and resources would it take for the federal government to do this, and are the costs worth the benefits?</t>
   </si>
   <si>
@@ -427,6 +484,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and I would also like to commend the panel today for your very informative testimony and also for the zeal that you have in working in cybersecurity, and I believe it's, you know, potentially the war of the future that we're fighting here in cybersecurity, and I'm from Arkansas, and just for personal reasons, Mr. Clinton, do you have any Arkansas ties just out of curiosity? Okay. And I've been listening to the testimony and the answers to the questions. I've got a 20-year-old college student, and I had a fascinating conversation over Christmas, and you guys were talking about how millennials are always connected, and he was telling me that that's a huge consideration where you take a job now, what the connectivity's feed is, you know, and that wasn't something we considered when I was getting out of college but it played a big key in where they would go to work and where they would eventually live. So I know we're in this connected world now.    To follow up on Mr. Swalwell's question, he was talking about being on offense and the prosecution, but from the technology side, is it all defensive or are there proactive ways to combat hackers before they make their attack?</t>
   </si>
   <si>
@@ -454,6 +517,9 @@
     <t xml:space="preserve">    Mr. Westerman. Unless you extend it.    Chairwoman Comstock. Now I recognize Mr. Abraham.</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chairman, for having this great hearing, and I want to thank the witnesses for giving direct answers to direct questions. That's refreshing and somewhat of a novel idea in a Committee hearing, so kudos to you guys for answering straight up. We appreciate that.    Some of you have espoused the value of sharing cybersecurity information whether it be a cyber threat tread or a cyber crime with certainly other companies or government officials. This last cybersecurity bill that we passed last month, did that help or hurt in this area?</t>
   </si>
   <si>
@@ -482,6 +548,12 @@
   </si>
   <si>
     <t>412422</t>
+  </si>
+  <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
+    <t>Randy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you so much, Chairwoman. Thank you all for being here. I know a lot of things have already been asked and answered, but as we say around here, not everyone has asked that same question yet, so my turn.    Now, I'm going to try and focus on a couple different things, but thank you. I do think this is so important and I do think the American people, our constituents, are waking up and feeling some of that fear, and wanting to know the right thing to do. So we always want to hear from you of how we can be informing our own constituents of wise decisions along with ourselves, our families and our staff to protect important information. So much of our society, so much of our financial systems is based on consumer confidence, and if there's a feeling that this isn't safe or whatever it is, I think we're going to lose the benefits that much of this technology has, so we want to do this well.    I do want to talk briefly or ask you your thoughts. We've talked a little bit about what government can do better, learning from the private sector, and certainly the private sector is ahead of us in so many areas. We've also heard--I really appreciate it, Mr. Clinton, your response that, you know, for us to say that this is like an airbag problem, it isn't. It's completely different and, you know, so for us to be prescriptive of saying you have to do this, we always pick the wrong technologies always too late. So instead it's really this framework, I think, of a way of thinking of how to solve this problem, but a question I would have is really with impediments that government is putting up to your business or other businesses from new innovation. What would you say may be the greatest impediment that you feel from government from your business innovating or doing what you already do best? Is there something that has been a hurdle that you've had to overcome, Dr. Casado?</t>
@@ -860,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +940,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,3533 +962,4063 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
+        <v>101</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>101</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
       <c r="H87" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s">
+        <v>101</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s">
+        <v>101</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s">
+        <v>101</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>125</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>125</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>125</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>136</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>136</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>136</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>149</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>149</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G121" t="s">
+        <v>156</v>
+      </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G124" t="s">
+        <v>156</v>
+      </c>
       <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G126" t="s">
+        <v>156</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>136</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G128" t="s">
+        <v>156</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G129" t="s">
+        <v>156</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>167</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>167</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>167</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>167</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>35</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>167</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>155</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G139" t="s">
+        <v>178</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>155</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G141" t="s">
+        <v>178</v>
+      </c>
       <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>155</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G143" t="s">
+        <v>178</v>
+      </c>
       <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>155</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G145" t="s">
+        <v>178</v>
+      </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>155</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G147" t="s">
+        <v>178</v>
+      </c>
       <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20826.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Beyer</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
   </si>
   <si>
     <t>400381</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Smith</t>
@@ -932,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +952,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,4060 +977,4296 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G91" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>125</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>39</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>125</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>125</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>129</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>125</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>129</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>125</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>136</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>140</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>136</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>140</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>140</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>140</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>140</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>39</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>140</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>149</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>153</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>153</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>153</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>39</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G124" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I124" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G126" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H126" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I126" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G129" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I129" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>167</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>171</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>167</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>171</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>167</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>171</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>167</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>171</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>39</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>167</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>171</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G139" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H139" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G141" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I141" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G143" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G145" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I145" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G147" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I147" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>189</v>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
